--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BFA1E4-E612-4A70-9679-698D01B7BA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DF9D0-E09A-4070-AC37-C25F4628170F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Windows 用户</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{34DD020E-60F0-4970-AAAC-D284BB52DD58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+目标对象:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0:攻击本身</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.选取的人物
+2.自己</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>number</t>
   </si>
@@ -36,17 +92,30 @@
     <t>id</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>如果</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果自己的生命值低于50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标的生命值低于50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +129,26 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,41 +452,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2DF9D0-E09A-4070-AC37-C25F4628170F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{34DD020E-60F0-4970-AAAC-D284BB52DD58}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,18 +102,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果自己的生命值低于50%</t>
+    <t>如果自己的生命值低于x%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果目标的生命值低于50%</t>
+    <t>如果目标的生命值低于x%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -452,19 +451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -486,7 +485,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -497,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -37,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Windows 用户:</t>
@@ -46,6 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -67,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>number</t>
   </si>
@@ -102,11 +105,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果自己的生命值低于x%</t>
+    <t>如果目标身上有&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果目标的生命值低于x%</t>
+    <t>如果自己身上有&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果自己的生命值低于&lt;#x&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标的生命值低于&lt;#x&gt;%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,12 +145,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -452,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -493,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -504,6 +510,28 @@
         <v>7</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
     </row>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>number</t>
   </si>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>如果目标的生命值低于&lt;#x&gt;%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的手牌中每有一个种类的得牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,6 +539,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>number</t>
   </si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>你的手牌中每有一个种类的得牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标身上有护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,6 +554,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B99694-F3E8-49C5-B00D-BBB6C8FCA8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,19 +466,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -510,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -521,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -532,7 +533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -543,7 +544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -554,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B99694-F3E8-49C5-B00D-BBB6C8FCA8BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521DE587-F63A-4665-AB8D-92F393A0B1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521DE587-F63A-4665-AB8D-92F393A0B1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>number</t>
   </si>
@@ -127,13 +126,17 @@
   </si>
   <si>
     <t>如果目标身上有护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每有一点剑法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,19 +469,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -500,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -511,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -522,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -533,7 +536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -544,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -555,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -564,6 +567,17 @@
       </c>
       <c r="C8">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>number</t>
   </si>
@@ -130,6 +130,22 @@
   </si>
   <si>
     <t>你每有一点剑法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的&lt;color=#b5a430&gt;拳掌&lt;/c&gt;大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的&lt;color=#b5a430&gt;剑法&lt;/c&gt;大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的&lt;color=#3079b5&gt;内功&lt;/c&gt;大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的&lt;color=#9630b5&gt;暗器&lt;/c&gt;大于&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -580,6 +596,50 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>number</t>
   </si>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你的手牌中每有一个种类的得牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果目标身上有护盾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,15 +133,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果你的&lt;color=#b5a430&gt;剑法&lt;/c&gt;大于&lt;#x&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果你的&lt;color=#3079b5&gt;内功&lt;/c&gt;大于&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>如果你的&lt;color=#9630b5&gt;暗器&lt;/c&gt;大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的轻功大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的&lt;color=#b53030&gt;剑法&lt;/c&gt;大于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的手牌中每有一种类型的的卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果此卡是手牌中的最后一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -568,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -579,7 +587,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -590,7 +598,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -601,7 +609,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -612,7 +620,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -623,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -634,9 +642,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
     </row>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>number</t>
   </si>
@@ -154,6 +154,14 @@
   </si>
   <si>
     <t>如果此卡是手牌中的最后一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标&lt;color=#3079b5&gt;内功&lt;/c&gt;小于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果目标&lt;color=#b5a430&gt;拳掌&lt;/c&gt;小于&lt;#x&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,6 +678,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27003E-7264-4FD0-83A1-A6EBCDD801E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>number</t>
   </si>
@@ -162,13 +163,17 @@
   </si>
   <si>
     <t>如果目标&lt;color=#b5a430&gt;拳掌&lt;/c&gt;小于&lt;#x&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每拥有一点&lt;color=#3079b5&gt;内功&lt;/c&gt;属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,19 +506,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="64.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,7 +540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -546,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -557,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -568,7 +573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -579,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -590,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -601,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -612,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -623,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -634,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -645,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -656,7 +661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -667,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -678,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -689,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -698,6 +703,17 @@
       </c>
       <c r="C17">
         <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill_condition.xlsx
+++ b/excel/skill_condition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27003E-7264-4FD0-83A1-A6EBCDD801E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599A3AAD-529F-4304-9141-F78948E8DB67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>number</t>
   </si>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>你每拥有一点&lt;color=#3079b5&gt;内功&lt;/c&gt;属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行&lt;#x&gt;次</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,6 +720,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
